--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1393.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1393.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.392313770779875</v>
+        <v>1.189389586448669</v>
       </c>
       <c r="B1">
-        <v>2.472871199392265</v>
+        <v>2.226623773574829</v>
       </c>
       <c r="C1">
-        <v>2.988127086855766</v>
+        <v>6.506722450256348</v>
       </c>
       <c r="D1">
-        <v>3.429520055707473</v>
+        <v>2.303606748580933</v>
       </c>
       <c r="E1">
-        <v>1.44894289641351</v>
+        <v>1.190868139266968</v>
       </c>
     </row>
   </sheetData>
